--- a/dynamic_inventory/inventory_data.xlsx
+++ b/dynamic_inventory/inventory_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colcomerciocom-my.sharepoint.com/personal/1026278709_colcomercio_com_co/Documents/Escritorio/Info Organizada 2024/Proyectos/Ansible/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AD4D2F04E46CFB4ACB3E20B96556FE32693EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{244585CC-C43C-4471-80A1-A5783182CC9C}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D2F04E46CFB4ACB3E20B96556FE32693EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03EBC54D-2DDD-4621-9E67-8C2BDF59A168}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,19 +42,19 @@
     <t>user</t>
   </si>
   <si>
-    <t>10.181.6.38</t>
-  </si>
-  <si>
     <t>lb-security</t>
   </si>
   <si>
-    <t>10.181.6.39</t>
-  </si>
-  <si>
     <t>web-servers</t>
   </si>
   <si>
     <t>ansible</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,13 +416,13 @@
     </row>
     <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
@@ -430,16 +430,16 @@
     </row>
     <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/dynamic_inventory/inventory_data.xlsx
+++ b/dynamic_inventory/inventory_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colcomerciocom-my.sharepoint.com/personal/1026278709_colcomercio_com_co/Documents/Escritorio/Info Organizada 2024/Proyectos/Ansible/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\1\root@10.181.6.38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_AD4D2F04E46CFB4ACB3E20B96556FE32693EDF2F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03EBC54D-2DDD-4621-9E67-8C2BDF59A168}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA24AE9-C343-4C7B-915D-4465BB145D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>admin</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>prueba1</t>
+  </si>
+  <si>
+    <t>prueba2</t>
   </si>
 </sst>
 </file>
@@ -386,21 +395,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="3" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -411,10 +420,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -424,11 +436,14 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -438,7 +453,10 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/dynamic_inventory/inventory_data.xlsx
+++ b/dynamic_inventory/inventory_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\1\root@10.181.6.38\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\3\root@10.181.6.38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA24AE9-C343-4C7B-915D-4465BB145D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64DF9B0-C07B-41FF-8A0D-5943AA21EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,40 +30,40 @@
     <t>admin</t>
   </si>
   <si>
-    <t>host</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>ip</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>lb-security</t>
-  </si>
-  <si>
-    <t>web-servers</t>
-  </si>
-  <si>
-    <t>ansible</t>
-  </si>
-  <si>
-    <t>10.10.10.1</t>
-  </si>
-  <si>
-    <t>10.10.10.2</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>prueba1</t>
-  </si>
-  <si>
-    <t>prueba2</t>
+    <t>Host</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>Usuario</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>web</t>
+  </si>
+  <si>
+    <t>192.168.0.1</t>
+  </si>
+  <si>
+    <t>Servidor web 1</t>
+  </si>
+  <si>
+    <t>db</t>
+  </si>
+  <si>
+    <t>192.168.0.2</t>
+  </si>
+  <si>
+    <t>dbuser</t>
+  </si>
+  <si>
+    <t>Servidor de BD</t>
   </si>
 </sst>
 </file>
@@ -398,7 +398,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,44 +420,44 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/dynamic_inventory/inventory_data.xlsx
+++ b/dynamic_inventory/inventory_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\3\root@10.181.6.38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64DF9B0-C07B-41FF-8A0D-5943AA21EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F3B72-6AD7-4AC9-BF1A-41C2BF2D9310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>admin</t>
   </si>
   <si>
+    <t>ansible</t>
+  </si>
+  <si>
     <t>Host</t>
   </si>
   <si>
@@ -45,25 +48,19 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>web</t>
-  </si>
-  <si>
-    <t>192.168.0.1</t>
-  </si>
-  <si>
-    <t>Servidor web 1</t>
-  </si>
-  <si>
-    <t>db</t>
-  </si>
-  <si>
-    <t>192.168.0.2</t>
-  </si>
-  <si>
     <t>dbuser</t>
   </si>
   <si>
-    <t>Servidor de BD</t>
+    <t>10.181.6.38</t>
+  </si>
+  <si>
+    <t>Server Ansible</t>
+  </si>
+  <si>
+    <t>10.181.8.209</t>
+  </si>
+  <si>
+    <t>Servidor pruebas linea base</t>
   </si>
 </sst>
 </file>
@@ -107,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -115,6 +112,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,7 +396,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,61 +404,62 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
     <col min="3" max="4" width="28.140625" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dynamic_inventory/inventory_data.xlsx
+++ b/dynamic_inventory/inventory_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\3\root@10.181.6.38\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\102627~1\AppData\Roaming\MobaXterm\slash\FTPRemoteFiles\3\4\root@10.181.6.38\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C33F3B72-6AD7-4AC9-BF1A-41C2BF2D9310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{184B0E2F-BDA3-4062-9A86-D301D9E0C1ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
-  <si>
-    <t>admin</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>ansible</t>
   </si>
@@ -48,9 +45,6 @@
     <t>Descripción</t>
   </si>
   <si>
-    <t>dbuser</t>
-  </si>
-  <si>
     <t>10.181.6.38</t>
   </si>
   <si>
@@ -61,6 +55,9 @@
   </si>
   <si>
     <t>Servidor pruebas linea base</t>
+  </si>
+  <si>
+    <t>root</t>
   </si>
 </sst>
 </file>
@@ -104,7 +101,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -112,7 +109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,7 +392,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -409,53 +405,53 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
